--- a/biology/Botanique/Baccaurea_brevipes/Baccaurea_brevipes.xlsx
+++ b/biology/Botanique/Baccaurea_brevipes/Baccaurea_brevipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baccaurea brevipes est une espèce de plantes à fleurs de la famille des Euphorbiaceae, selon la classification classique, ou de celle des Phyllanthaceae, selon la classification phylogénétique. C'est un arbuste tropical trouvé en Asie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste atteint 10 mètres de haut, avec un tronc de 15 cm de diamètre.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Thaïlande, péninsule Malaise, Sumatra, nord-ouest de Bornéo.
 </t>
@@ -573,7 +589,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Localement cultivé pour les fruits.
 Noms malais : rambai, rambai hutan.
@@ -605,7 +623,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Baccaurea sur nationaalherbarium.nl
  Portail de la botanique   Portail de l’Indonésie   Portail de la Malaisie   Portail de la Thaïlande                  </t>
